--- a/Plan/Table/E.인카운트이벤트테이블_1.0.xlsx
+++ b/Plan/Table/E.인카운트이벤트테이블_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chepy\OneDrive\문서\FluffyDiscatDevelop\Plan\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D3077F-3D84-4B02-80A5-65C84EED38DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27013D5-AE77-4DE7-9EEA-69AC584FCE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,14 +1201,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1220,14 +1223,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1512,8 +1512,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="F164" sqref="F164"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1641,20 +1641,20 @@
       <c r="O2" s="10">
         <v>0</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="V2" s="17" t="s">
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="V2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Z2" s="18" t="s">
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Z2" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="AA2" s="18"/>
+      <c r="AA2" s="28"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -2722,13 +2722,13 @@
       <c r="T18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V18" s="19" t="s">
+      <c r="V18" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="W18" s="19" t="s">
+      <c r="W18" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="X18" s="19" t="s">
+      <c r="X18" s="17" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2782,13 +2782,13 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="24" t="s">
+      <c r="V19" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="W19" s="25" t="s">
+      <c r="W19" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="X19" s="26" t="s">
+      <c r="X19" s="21" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2838,17 +2838,17 @@
       <c r="O20" s="10">
         <v>0</v>
       </c>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="24" t="s">
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="W20" s="25" t="s">
+      <c r="W20" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="X20" s="26" t="s">
+      <c r="X20" s="21" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2899,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="U21" s="2"/>
-      <c r="V21" s="24" t="s">
+      <c r="V21" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="W21" s="25" t="s">
+      <c r="W21" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="X21" s="26" t="s">
+      <c r="X21" s="21" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2955,20 +2955,20 @@
       <c r="O22" s="10">
         <v>0</v>
       </c>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
@@ -3016,22 +3016,22 @@
       <c r="O23" s="10">
         <v>0</v>
       </c>
-      <c r="R23" s="21" t="s">
+      <c r="R23" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="23"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="26"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
@@ -3085,7 +3085,7 @@
       <c r="S24" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="T24" s="20" t="s">
+      <c r="T24" s="18" t="s">
         <v>40</v>
       </c>
       <c r="U24" s="16" t="s">
@@ -4681,7 +4681,7 @@
       <c r="O42" s="10">
         <v>0</v>
       </c>
-      <c r="R42" s="24" t="s">
+      <c r="R42" s="19" t="s">
         <v>216</v>
       </c>
       <c r="S42" s="6" t="s">
@@ -4770,7 +4770,7 @@
       <c r="O43" s="10">
         <v>0</v>
       </c>
-      <c r="R43" s="24" t="s">
+      <c r="R43" s="19" t="s">
         <v>218</v>
       </c>
       <c r="S43" s="6" t="s">
@@ -4957,7 +4957,7 @@
         <v>189</v>
       </c>
       <c r="B47" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>24</v>
@@ -5004,7 +5004,7 @@
         <v>189</v>
       </c>
       <c r="B48" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>30</v>
@@ -5051,7 +5051,7 @@
         <v>189</v>
       </c>
       <c r="B49" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>200</v>
@@ -5098,7 +5098,7 @@
         <v>189</v>
       </c>
       <c r="B50" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>8</v>
@@ -5106,8 +5106,14 @@
       <c r="D50" s="10" t="s">
         <v>192</v>
       </c>
+      <c r="E50" s="10">
+        <v>6</v>
+      </c>
       <c r="F50" s="10" t="s">
         <v>193</v>
+      </c>
+      <c r="G50" s="10">
+        <v>18</v>
       </c>
       <c r="H50" s="10">
         <v>0</v>
@@ -5139,7 +5145,7 @@
         <v>189</v>
       </c>
       <c r="B51" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>194</v>
@@ -5148,19 +5154,19 @@
         <v>34</v>
       </c>
       <c r="E51" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F51" s="10">
         <v>33</v>
       </c>
       <c r="G51" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H51" s="10">
         <v>33</v>
       </c>
       <c r="I51" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J51" s="10">
         <v>0</v>
@@ -5186,7 +5192,7 @@
         <v>189</v>
       </c>
       <c r="B52" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>29</v>
@@ -5233,7 +5239,7 @@
         <v>189</v>
       </c>
       <c r="B53" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>2</v>
@@ -5280,7 +5286,7 @@
         <v>189</v>
       </c>
       <c r="B54" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>201</v>
@@ -5327,7 +5333,7 @@
         <v>189</v>
       </c>
       <c r="B55" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>2</v>
@@ -5374,7 +5380,7 @@
         <v>189</v>
       </c>
       <c r="B56" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>201</v>
@@ -5421,7 +5427,7 @@
         <v>189</v>
       </c>
       <c r="B57" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>204</v>
@@ -5468,7 +5474,7 @@
         <v>189</v>
       </c>
       <c r="B58" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>2</v>
@@ -5515,7 +5521,7 @@
         <v>189</v>
       </c>
       <c r="B59" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>205</v>
@@ -5562,7 +5568,7 @@
         <v>189</v>
       </c>
       <c r="B60" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>29</v>
@@ -5609,7 +5615,7 @@
         <v>189</v>
       </c>
       <c r="B61" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>2</v>
@@ -5656,7 +5662,7 @@
         <v>189</v>
       </c>
       <c r="B62" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>201</v>
@@ -5703,7 +5709,7 @@
         <v>189</v>
       </c>
       <c r="B63" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>194</v>
@@ -5750,7 +5756,7 @@
         <v>189</v>
       </c>
       <c r="B64" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>2</v>
@@ -5797,7 +5803,7 @@
         <v>189</v>
       </c>
       <c r="B65" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>201</v>
@@ -5844,7 +5850,7 @@
         <v>189</v>
       </c>
       <c r="B66" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>2</v>
@@ -5891,7 +5897,7 @@
         <v>189</v>
       </c>
       <c r="B67" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>208</v>
@@ -6363,7 +6369,7 @@
       <c r="B77" s="10">
         <v>10</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D77" s="10">
@@ -6504,7 +6510,7 @@
       <c r="B80" s="10">
         <v>13</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D80" s="10">
@@ -6551,7 +6557,7 @@
       <c r="B81" s="10">
         <v>14</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C81" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D81" s="10">
@@ -6692,7 +6698,7 @@
       <c r="B84" s="10">
         <v>17</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D84" s="10">
@@ -6739,7 +6745,7 @@
       <c r="B85" s="10">
         <v>18</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D85" s="10">
@@ -6880,7 +6886,7 @@
       <c r="B88" s="10">
         <v>21</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D88" s="10">
@@ -6927,7 +6933,7 @@
       <c r="B89" s="10">
         <v>22</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="C89" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D89" s="10">
@@ -7068,7 +7074,7 @@
       <c r="B92" s="10">
         <v>25</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C92" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D92" s="10">
@@ -7115,7 +7121,7 @@
       <c r="B93" s="10">
         <v>26</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D93" s="10">
@@ -7256,7 +7262,7 @@
       <c r="B96" s="10">
         <v>29</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D96" s="10">
@@ -7303,7 +7309,7 @@
       <c r="B97" s="10">
         <v>30</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D97" s="10">
@@ -7679,7 +7685,7 @@
       <c r="B105" s="10">
         <v>38</v>
       </c>
-      <c r="C105" s="24" t="s">
+      <c r="C105" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D105" s="10">
@@ -7820,7 +7826,7 @@
       <c r="B108" s="10">
         <v>41</v>
       </c>
-      <c r="C108" s="24" t="s">
+      <c r="C108" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D108" s="10">
@@ -7867,7 +7873,7 @@
       <c r="B109" s="10">
         <v>42</v>
       </c>
-      <c r="C109" s="24" t="s">
+      <c r="C109" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D109" s="10">
@@ -8008,7 +8014,7 @@
       <c r="B112" s="10">
         <v>45</v>
       </c>
-      <c r="C112" s="24" t="s">
+      <c r="C112" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D112" s="10">
@@ -8055,7 +8061,7 @@
       <c r="B113" s="10">
         <v>46</v>
       </c>
-      <c r="C113" s="24" t="s">
+      <c r="C113" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D113" s="10">
@@ -8196,7 +8202,7 @@
       <c r="B116" s="10">
         <v>49</v>
       </c>
-      <c r="C116" s="24" t="s">
+      <c r="C116" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D116" s="10">
@@ -8243,7 +8249,7 @@
       <c r="B117" s="10">
         <v>50</v>
       </c>
-      <c r="C117" s="24" t="s">
+      <c r="C117" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D117" s="10">
@@ -8384,7 +8390,7 @@
       <c r="B120" s="10">
         <v>53</v>
       </c>
-      <c r="C120" s="24" t="s">
+      <c r="C120" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D120" s="10">
@@ -8431,7 +8437,7 @@
       <c r="B121" s="10">
         <v>54</v>
       </c>
-      <c r="C121" s="24" t="s">
+      <c r="C121" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D121" s="10">
@@ -8572,7 +8578,7 @@
       <c r="B124" s="10">
         <v>57</v>
       </c>
-      <c r="C124" s="24" t="s">
+      <c r="C124" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D124" s="10">
@@ -8619,7 +8625,7 @@
       <c r="B125" s="10">
         <v>58</v>
       </c>
-      <c r="C125" s="24" t="s">
+      <c r="C125" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D125" s="10">
@@ -8948,7 +8954,7 @@
       <c r="B132" s="10">
         <v>65</v>
       </c>
-      <c r="C132" s="24" t="s">
+      <c r="C132" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D132" s="10">
@@ -9089,7 +9095,7 @@
       <c r="B135" s="10">
         <v>68</v>
       </c>
-      <c r="C135" s="24" t="s">
+      <c r="C135" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D135" s="10">
@@ -9136,7 +9142,7 @@
       <c r="B136" s="10">
         <v>69</v>
       </c>
-      <c r="C136" s="24" t="s">
+      <c r="C136" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D136" s="10">
@@ -9277,7 +9283,7 @@
       <c r="B139" s="10">
         <v>72</v>
       </c>
-      <c r="C139" s="24" t="s">
+      <c r="C139" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D139" s="10">
@@ -9324,7 +9330,7 @@
       <c r="B140" s="10">
         <v>73</v>
       </c>
-      <c r="C140" s="24" t="s">
+      <c r="C140" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D140" s="10">
@@ -9465,7 +9471,7 @@
       <c r="B143" s="10">
         <v>76</v>
       </c>
-      <c r="C143" s="24" t="s">
+      <c r="C143" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D143" s="10">
@@ -9512,7 +9518,7 @@
       <c r="B144" s="10">
         <v>77</v>
       </c>
-      <c r="C144" s="24" t="s">
+      <c r="C144" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D144" s="10">
@@ -9653,7 +9659,7 @@
       <c r="B147" s="10">
         <v>80</v>
       </c>
-      <c r="C147" s="24" t="s">
+      <c r="C147" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D147" s="10">
@@ -9700,7 +9706,7 @@
       <c r="B148" s="10">
         <v>81</v>
       </c>
-      <c r="C148" s="24" t="s">
+      <c r="C148" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D148" s="10">
@@ -9841,7 +9847,7 @@
       <c r="B151" s="10">
         <v>84</v>
       </c>
-      <c r="C151" s="24" t="s">
+      <c r="C151" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D151" s="10">
@@ -9888,7 +9894,7 @@
       <c r="B152" s="10">
         <v>85</v>
       </c>
-      <c r="C152" s="24" t="s">
+      <c r="C152" s="19" t="s">
         <v>216</v>
       </c>
       <c r="D152" s="10">

--- a/Plan/Table/E.인카운트이벤트테이블_1.0.xlsx
+++ b/Plan/Table/E.인카운트이벤트테이블_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chepy\OneDrive\문서\FluffyDiscatDevelop\Plan\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27013D5-AE77-4DE7-9EEA-69AC584FCE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50618BC1-9EDC-4209-8A9C-88D31410EABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1512,8 +1512,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -8958,7 +8958,7 @@
         <v>216</v>
       </c>
       <c r="D132" s="10">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E132" s="10">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>218</v>
       </c>
       <c r="D133" s="10">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E133" s="10">
         <v>0</v>
@@ -9052,7 +9052,7 @@
         <v>29</v>
       </c>
       <c r="D134" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E134" s="10">
         <v>0</v>
@@ -9146,7 +9146,7 @@
         <v>216</v>
       </c>
       <c r="D136" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E136" s="10">
         <v>0</v>
@@ -9193,7 +9193,7 @@
         <v>218</v>
       </c>
       <c r="D137" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E137" s="10">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>29</v>
       </c>
       <c r="D138" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E138" s="10">
         <v>0</v>
@@ -9334,7 +9334,7 @@
         <v>216</v>
       </c>
       <c r="D140" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E140" s="10">
         <v>0</v>
@@ -9381,7 +9381,7 @@
         <v>218</v>
       </c>
       <c r="D141" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E141" s="10">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>29</v>
       </c>
       <c r="D142" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E142" s="10">
         <v>0</v>
@@ -9522,7 +9522,7 @@
         <v>216</v>
       </c>
       <c r="D144" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E144" s="10">
         <v>0</v>
@@ -9569,7 +9569,7 @@
         <v>218</v>
       </c>
       <c r="D145" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E145" s="10">
         <v>0</v>
@@ -9616,7 +9616,7 @@
         <v>29</v>
       </c>
       <c r="D146" s="10">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E146" s="10">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>216</v>
       </c>
       <c r="D148" s="10">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E148" s="10">
         <v>0</v>
@@ -9757,7 +9757,7 @@
         <v>218</v>
       </c>
       <c r="D149" s="10">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E149" s="10">
         <v>0</v>
@@ -9804,7 +9804,7 @@
         <v>29</v>
       </c>
       <c r="D150" s="10">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E150" s="10">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>216</v>
       </c>
       <c r="D152" s="10">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E152" s="10">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>29</v>
       </c>
       <c r="D153" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E153" s="10">
         <v>0</v>
